--- a/F_dataset/DUD-E/CSF1R/CSF1R_prepare/CSF1R_total.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_prepare/CSF1R_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T358"/>
+  <dimension ref="A1:T307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18283,4290 +18283,6 @@
       <c r="S307" t="inlineStr"/>
       <c r="T307" t="inlineStr"/>
     </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>CHEMBL408431</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>1</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>CC1=C(c2cc(N3CCN(C)CC3)ccc2NC(=O)c2ccc(C#N)o2)CCCC1</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>CC1=C(c2cc(N3CCN(C)CC3)ccc2NC(=O)c2ccc(C#N)o2)CCCC1</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G308" t="n">
-        <v>404.51</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>5</v>
-      </c>
-      <c r="J308" t="n">
-        <v>4</v>
-      </c>
-      <c r="K308" t="n">
-        <v>4</v>
-      </c>
-      <c r="L308" t="n">
-        <v>2</v>
-      </c>
-      <c r="M308" t="n">
-        <v>72.51000000000001</v>
-      </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P308" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q308" t="n">
-        <v>54</v>
-      </c>
-      <c r="R308" t="inlineStr">
-        <is>
-          <t>CHEMBL933669</t>
-        </is>
-      </c>
-      <c r="S308" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS</t>
-        </is>
-      </c>
-      <c r="T308" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>CHEMBL401618</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>1</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)cnc3[nH]c2=O)on1</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)cnc3[nH]c2=O)on1</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G309" t="n">
-        <v>337.77</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>4</v>
-      </c>
-      <c r="J309" t="n">
-        <v>2</v>
-      </c>
-      <c r="K309" t="n">
-        <v>4</v>
-      </c>
-      <c r="L309" t="n">
-        <v>4</v>
-      </c>
-      <c r="M309" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q309" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R309" t="inlineStr">
-        <is>
-          <t>CHEMBL951197</t>
-        </is>
-      </c>
-      <c r="S309" t="inlineStr">
-        <is>
-          <t>Inhibition of human cytoplasmic macrophage colony-stimulating factor 1 receptor by fluorescence polarization</t>
-        </is>
-      </c>
-      <c r="T309" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>CHEMBL248933</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>1</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2c(C(N)=O)cnc3cc(-c4ccncc4)ccc23)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2c(C(N)=O)cnc3cc(-c4ccncc4)ccc23)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G310" t="n">
-        <v>404.86</v>
-      </c>
-      <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>5</v>
-      </c>
-      <c r="J310" t="n">
-        <v>5</v>
-      </c>
-      <c r="K310" t="n">
-        <v>4</v>
-      </c>
-      <c r="L310" t="n">
-        <v>4</v>
-      </c>
-      <c r="M310" t="n">
-        <v>90.13</v>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q310" t="n">
-        <v>32</v>
-      </c>
-      <c r="R310" t="inlineStr">
-        <is>
-          <t>CHEMBL925269</t>
-        </is>
-      </c>
-      <c r="S310" t="inlineStr">
-        <is>
-          <t>Inhibition of cfms</t>
-        </is>
-      </c>
-      <c r="T310" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>CHEMBL381207</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>1</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Cc1sc2ncnc(N)c2c1-c1ccc(NC(=O)Nc2cc(C(F)(F)F)ccc2F)cc1</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>Cc1sc2ncnc(N)c2c1-c1ccc(NC(=O)Nc2cc(C(F)(F)F)ccc2F)cc1</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G311" t="n">
-        <v>461.44</v>
-      </c>
-      <c r="H311" t="n">
-        <v>3</v>
-      </c>
-      <c r="I311" t="n">
-        <v>4</v>
-      </c>
-      <c r="J311" t="n">
-        <v>3</v>
-      </c>
-      <c r="K311" t="n">
-        <v>4</v>
-      </c>
-      <c r="L311" t="n">
-        <v>4</v>
-      </c>
-      <c r="M311" t="n">
-        <v>92.93000000000001</v>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P311" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q311" t="n">
-        <v>57</v>
-      </c>
-      <c r="R311" t="inlineStr">
-        <is>
-          <t>CHEMBL872200</t>
-        </is>
-      </c>
-      <c r="S311" t="inlineStr">
-        <is>
-          <t>Inhibitory activity against CSF1R</t>
-        </is>
-      </c>
-      <c r="T311" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>CHEMBL456375</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>1</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(N(C)c3ccccc3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(N(C)c3ccccc3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G312" t="n">
-        <v>295.34</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>5</v>
-      </c>
-      <c r="J312" t="n">
-        <v>4</v>
-      </c>
-      <c r="K312" t="n">
-        <v>3</v>
-      </c>
-      <c r="L312" t="n">
-        <v>3</v>
-      </c>
-      <c r="M312" t="n">
-        <v>47.48</v>
-      </c>
-      <c r="N312" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P312" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q312" t="n">
-        <v>500</v>
-      </c>
-      <c r="R312" t="inlineStr">
-        <is>
-          <t>CHEMBL971735</t>
-        </is>
-      </c>
-      <c r="S312" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R</t>
-        </is>
-      </c>
-      <c r="T312" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>CHEMBL3109344</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>1</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>COCCOc1ccn2c(-c3ccc4cccc(O[C@H]5CCCNC5)c4n3)cnc2c1</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>COCCOc1ccn2c(-c3ccc4cccc(O[C@H]5CCCNC5)c4n3)cnc2c1</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G313" t="n">
-        <v>418.5</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>6</v>
-      </c>
-      <c r="J313" t="n">
-        <v>7</v>
-      </c>
-      <c r="K313" t="n">
-        <v>5</v>
-      </c>
-      <c r="L313" t="n">
-        <v>4</v>
-      </c>
-      <c r="M313" t="n">
-        <v>69.91</v>
-      </c>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P313" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q313" t="n">
-        <v>21</v>
-      </c>
-      <c r="R313" t="inlineStr">
-        <is>
-          <t>CHEMBL3111863</t>
-        </is>
-      </c>
-      <c r="S313" t="inlineStr">
-        <is>
-          <t>Inhibition of cFMS (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T313" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>CHEMBL3586404</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>1</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>CO[C@H]1CC[C@H](N2C(=O)CNc3ncc(-c4ccc(C(C)(C)O)nc4)nc32)CC1</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>CO[C@H]1CC[C@H](N2C(=O)CNc3ncc(-c4ccc(C(C)(C)O)nc4)nc32)CC1</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G314" t="n">
-        <v>397.48</v>
-      </c>
-      <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>7</v>
-      </c>
-      <c r="J314" t="n">
-        <v>4</v>
-      </c>
-      <c r="K314" t="n">
-        <v>4</v>
-      </c>
-      <c r="L314" t="n">
-        <v>2</v>
-      </c>
-      <c r="M314" t="n">
-        <v>100.47</v>
-      </c>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O314" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P314" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q314" t="n">
-        <v>28</v>
-      </c>
-      <c r="R314" t="inlineStr">
-        <is>
-          <t>CHEMBL3587471</t>
-        </is>
-      </c>
-      <c r="S314" t="inlineStr">
-        <is>
-          <t>Inhibition of cFMS (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T314" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>CHEMBL3616990</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>1</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Cc1ccccc1C(=O)Nc1cnoc1C</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>Cc1ccccc1C(=O)Nc1cnoc1C</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G315" t="n">
-        <v>216.24</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3</v>
-      </c>
-      <c r="J315" t="n">
-        <v>2</v>
-      </c>
-      <c r="K315" t="n">
-        <v>2</v>
-      </c>
-      <c r="L315" t="n">
-        <v>2</v>
-      </c>
-      <c r="M315" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="N315" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q315" t="n">
-        <v>216</v>
-      </c>
-      <c r="R315" t="inlineStr">
-        <is>
-          <t>CHEMBL3620030</t>
-        </is>
-      </c>
-      <c r="S315" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) after 40 mins by scintillation counting analysis</t>
-        </is>
-      </c>
-      <c r="T315" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>CHEMBL508935</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>1</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)C(=O)C4)cc3)ncc2c1=O</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)C(=O)C4)cc3)ncc2c1=O</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G316" t="n">
-        <v>567.65</v>
-      </c>
-      <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>8</v>
-      </c>
-      <c r="J316" t="n">
-        <v>8</v>
-      </c>
-      <c r="K316" t="n">
-        <v>6</v>
-      </c>
-      <c r="L316" t="n">
-        <v>4</v>
-      </c>
-      <c r="M316" t="n">
-        <v>121.69</v>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P316" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q316" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R316" t="inlineStr">
-        <is>
-          <t>CHEMBL961253</t>
-        </is>
-      </c>
-      <c r="S316" t="inlineStr">
-        <is>
-          <t>Inhibition of Fms by fluorescence polarization competition immunoassay</t>
-        </is>
-      </c>
-      <c r="T316" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>CHEMBL4473704</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>1</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>COc1cc(C2CN(C(=O)c3cc(OCCN4CCOCC4)ccn3)C2)ccc1OCc1ccc(C2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>COc1cc(C2CN(C(=O)c3cc(OCCN4CCOCC4)ccn3)C2)ccc1OCc1ccc(C2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G317" t="n">
-        <v>543.66</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>7</v>
-      </c>
-      <c r="J317" t="n">
-        <v>11</v>
-      </c>
-      <c r="K317" t="n">
-        <v>6</v>
-      </c>
-      <c r="L317" t="n">
-        <v>3</v>
-      </c>
-      <c r="M317" t="n">
-        <v>73.36</v>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P317" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q317" t="n">
-        <v>12</v>
-      </c>
-      <c r="R317" t="inlineStr">
-        <is>
-          <t>CHEMBL4424848</t>
-        </is>
-      </c>
-      <c r="S317" t="inlineStr">
-        <is>
-          <t>Inhibition of human CSF1R tyrosine kinase domain (538 to 972 residues) using Poly(Glu, Tyr)-biotinylated peptide as substrate preincubated for 5 mins followed by substrate addition and measured after 10 mins by HTRF assay</t>
-        </is>
-      </c>
-      <c r="T317" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>CHEMBL3301607</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>1</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>O=C(Nc1nc2cccc(-c3ccc(CN4CCS(=O)(=O)CC4)cc3)n2n1)C1CC1</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>O=C(Nc1nc2cccc(-c3ccc(CN4CCS(=O)(=O)CC4)cc3)n2n1)C1CC1</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G318" t="n">
-        <v>425.51</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>6</v>
-      </c>
-      <c r="J318" t="n">
-        <v>5</v>
-      </c>
-      <c r="K318" t="n">
-        <v>5</v>
-      </c>
-      <c r="L318" t="n">
-        <v>3</v>
-      </c>
-      <c r="M318" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q318" t="n">
-        <v>489</v>
-      </c>
-      <c r="R318" t="inlineStr">
-        <is>
-          <t>CHEMBL3382757</t>
-        </is>
-      </c>
-      <c r="S318" t="inlineStr">
-        <is>
-          <t>Inhibition of human CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T318" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>CHEMBL3678305</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>1</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cnc3c(c2)ncn3Cc2ccc(OC(C)c3ccc(OC)nc3)c(OC)c2)cn1</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cnc3c(c2)ncn3Cc2ccc(OC(C)c3ccc(OC)nc3)c(OC)c2)cn1</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G319" t="n">
-        <v>497.56</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>8</v>
-      </c>
-      <c r="J319" t="n">
-        <v>9</v>
-      </c>
-      <c r="K319" t="n">
-        <v>5</v>
-      </c>
-      <c r="L319" t="n">
-        <v>5</v>
-      </c>
-      <c r="M319" t="n">
-        <v>93.41</v>
-      </c>
-      <c r="N319" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P319" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q319" t="n">
-        <v>103</v>
-      </c>
-      <c r="R319" t="inlineStr">
-        <is>
-          <t>CHEMBL3705886</t>
-        </is>
-      </c>
-      <c r="S319" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Reagents and consumables were purchased from Sigma Aldrich, Carna Biosciences, or Caliper Life Sciences. All assay reaction conditions for IC50 determinations were within the linear range with respect to time and enzyme concentration. In a 384 well polypropylene plate, c-FMS (0.14 nM, Carna 08-155) was pre-incubated in a 100 mM Hepes-NaOH pH 7.5 buffer containing 0.01% Triton X-100, 10 mM MgCl2, 0.1% BSA, 1 mM DTT, 10 uM sodium orthovanadate and 10 uM beta-glycerophosphate and compound with a concentration of 2.5% DMSO for 15 minutes at room temperature. The reaction was initiated with an equal volume of peptide substrate (Caliper Life Sciences catalog no. 760430) and ATP in the aforementioned buffer. The final concentrations in the reaction were 70 pM c-FMS, 1.5 uM peptide substrate and 500 uM ATP (ATP Km). The reaction was incubated at room temperature for 120 minutes and terminated with a buffer containing excess EDTA (100 mM Hepes-NaOH pH 7.5, 0.02% Brij, 0.1% CR-3.</t>
-        </is>
-      </c>
-      <c r="T319" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>CHEMBL4065693</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>1</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>C=CC(=O)Nc1cccc(CNc2cc(Nc3ccccc3)ncc2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>C=CC(=O)Nc1cccc(CNc2cc(Nc3ccccc3)ncc2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G320" t="n">
-        <v>387.44</v>
-      </c>
-      <c r="H320" t="n">
-        <v>4</v>
-      </c>
-      <c r="I320" t="n">
-        <v>5</v>
-      </c>
-      <c r="J320" t="n">
-        <v>8</v>
-      </c>
-      <c r="K320" t="n">
-        <v>3</v>
-      </c>
-      <c r="L320" t="n">
-        <v>3</v>
-      </c>
-      <c r="M320" t="n">
-        <v>109.14</v>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P320" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q320" t="n">
-        <v>180</v>
-      </c>
-      <c r="R320" t="inlineStr">
-        <is>
-          <t>CHEMBL4047251</t>
-        </is>
-      </c>
-      <c r="S320" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) by caliper assay</t>
-        </is>
-      </c>
-      <c r="T320" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>CHEMBL4534671</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>1</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>COc1cccc(NC(=O)c2ccc(C)c(C#Cc3cc(-c4cnn(C)c4)cnc3N)c2)c1</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>COc1cccc(NC(=O)c2ccc(C)c(C#Cc3cc(-c4cnn(C)c4)cnc3N)c2)c1</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G321" t="n">
-        <v>437.5</v>
-      </c>
-      <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>5</v>
-      </c>
-      <c r="J321" t="n">
-        <v>4</v>
-      </c>
-      <c r="K321" t="n">
-        <v>4</v>
-      </c>
-      <c r="L321" t="n">
-        <v>4</v>
-      </c>
-      <c r="M321" t="n">
-        <v>95.06</v>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P321" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q321" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R321" t="inlineStr">
-        <is>
-          <t>CHEMBL4325582</t>
-        </is>
-      </c>
-      <c r="S321" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant CSF1R (unknown origin) using poly (Glu, Tyr)4:1 as substrate measured after 1 hr by ELISA</t>
-        </is>
-      </c>
-      <c r="T321" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>CHEMBL5072178</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>1</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Cc1nn(CC(F)(F)F)cc1Nc1nccc(NCc2ccc(S(N)(=O)=O)cc2)n1</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Cc1nn(CC(F)(F)F)cc1Nc1nccc(NCc2ccc(S(N)(=O)=O)cc2)n1</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G322" t="n">
-        <v>441.44</v>
-      </c>
-      <c r="H322" t="n">
-        <v>3</v>
-      </c>
-      <c r="I322" t="n">
-        <v>7</v>
-      </c>
-      <c r="J322" t="n">
-        <v>7</v>
-      </c>
-      <c r="K322" t="n">
-        <v>3</v>
-      </c>
-      <c r="L322" t="n">
-        <v>3</v>
-      </c>
-      <c r="M322" t="n">
-        <v>127.82</v>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P322" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q322" t="n">
-        <v>233</v>
-      </c>
-      <c r="R322" t="inlineStr">
-        <is>
-          <t>CHEMBL5046585</t>
-        </is>
-      </c>
-      <c r="S322" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human FMS (538 to end residues) using KKKSPGEYVNIEFG as substrate measured after 40 mins in presence of [gamma33P]ATP by radiometric scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T322" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>CHEMBL5090643</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>1</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3cc(NC(=O)Nc4cc(C(C)(C)C)on4)ccc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3cc(NC(=O)Nc4cc(C(C)(C)C)on4)ccc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G323" t="n">
-        <v>588.71</v>
-      </c>
-      <c r="H323" t="n">
-        <v>5</v>
-      </c>
-      <c r="I323" t="n">
-        <v>7</v>
-      </c>
-      <c r="J323" t="n">
-        <v>7</v>
-      </c>
-      <c r="K323" t="n">
-        <v>5</v>
-      </c>
-      <c r="L323" t="n">
-        <v>3</v>
-      </c>
-      <c r="M323" t="n">
-        <v>147.63</v>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P323" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q323" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R323" t="inlineStr">
-        <is>
-          <t>CHEMBL5057528</t>
-        </is>
-      </c>
-      <c r="S323" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) incubated for 30 mins in presence of ATP by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T323" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>CHEMBL3355065</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>1</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>CNc1cc2ccc(C#CCOc3ccc(CN4CCNCC4)c(C(F)(F)F)c3)cc2cn1</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>CNc1cc2ccc(C#CCOc3ccc(CN4CCNCC4)c(C(F)(F)F)c3)cc2cn1</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G324" t="n">
-        <v>454.5</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>5</v>
-      </c>
-      <c r="J324" t="n">
-        <v>5</v>
-      </c>
-      <c r="K324" t="n">
-        <v>4</v>
-      </c>
-      <c r="L324" t="n">
-        <v>3</v>
-      </c>
-      <c r="M324" t="n">
-        <v>49.42</v>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q324" t="n">
-        <v>46</v>
-      </c>
-      <c r="R324" t="inlineStr">
-        <is>
-          <t>CHEMBL3379618</t>
-        </is>
-      </c>
-      <c r="S324" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T324" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>CHEMBL3660784</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>1</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>CC1(C)CC=C(c2nc(CC(=O)O)ccc2NC(=O)c2ncc(C#N)[nH]2)CC1</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>CC1(C)CC=C(c2nc(CC(=O)O)ccc2NC(=O)c2ncc(C#N)[nH]2)CC1</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G325" t="n">
-        <v>379.42</v>
-      </c>
-      <c r="H325" t="n">
-        <v>3</v>
-      </c>
-      <c r="I325" t="n">
-        <v>6</v>
-      </c>
-      <c r="J325" t="n">
-        <v>5</v>
-      </c>
-      <c r="K325" t="n">
-        <v>3</v>
-      </c>
-      <c r="L325" t="n">
-        <v>2</v>
-      </c>
-      <c r="M325" t="n">
-        <v>131.76</v>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P325" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q325" t="n">
-        <v>26</v>
-      </c>
-      <c r="R325" t="inlineStr">
-        <is>
-          <t>CHEMBL3887764</t>
-        </is>
-      </c>
-      <c r="S325" t="inlineStr">
-        <is>
-          <t>Fluorescence Polarization Competition Immunoassay: A fluorescence polarization competition immunoassay was used to measure compound inhibition of CSF-1R phosphorylation of tyrosine on a synthetic CSF-1R555-568 peptide (SYEGNSYTFIDPTQ). The assay was performed in black 96-well microplates (Cat #42-000-0117, Molecular Devices, Sunnyvale, Calif.). To each well, 5 uL of compound (in 4% DMSO) were mixed with 2 uL of 3.5 nM CSF-1R, 25 mM MgCl2 in assay buffer (100 mM HEPES (hydroxyethylpiperazineethylsodiumsulfonate), pH 7.5, 1 mM DTT (dithiothreitol), 0.01% Tween-20), and 2 uL of 1540 uM peptide in assay buffer. The kinase reaction was initiated by adding 1 Î¼L of 10 mM ATP in assay buffer. The final concentrations in the 10 uL reaction mixture were 100 mM HEPES, pH 7.5, 1 mM DTT, 0.01% Tween-20, 2% DMSO, 308 uM SYEGNSYTFIDPTQ, 1 mM ATP, 5 mM MgCl2, and 0.7 nM CSF-1R. Positive and negative control wells were included on each plate, where 4% DMSO in assay buffer was substituted for the compound; in addition, positive control wells received 1.2 uL of 50 mM EDTA (ethylenediaminetetraacetic acid) before the start of the reaction.</t>
-        </is>
-      </c>
-      <c r="T325" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>CHEMBL4868857</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>1</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1cc(Oc2ccc3nc(N[C@H]4CCCC[C@H]4O)sc3c2)ccn1</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1cc(Oc2ccc3nc(N[C@H]4CCCC[C@H]4O)sc3c2)ccn1</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G326" t="n">
-        <v>398.49</v>
-      </c>
-      <c r="H326" t="n">
-        <v>3</v>
-      </c>
-      <c r="I326" t="n">
-        <v>6</v>
-      </c>
-      <c r="J326" t="n">
-        <v>5</v>
-      </c>
-      <c r="K326" t="n">
-        <v>4</v>
-      </c>
-      <c r="L326" t="n">
-        <v>3</v>
-      </c>
-      <c r="M326" t="n">
-        <v>96.37</v>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P326" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q326" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R326" t="inlineStr">
-        <is>
-          <t>CHEMBL4816272</t>
-        </is>
-      </c>
-      <c r="S326" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T326" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>CHEMBL475251</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>1</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G327" t="n">
-        <v>470.46</v>
-      </c>
-      <c r="H327" t="n">
-        <v>3</v>
-      </c>
-      <c r="I327" t="n">
-        <v>10</v>
-      </c>
-      <c r="J327" t="n">
-        <v>7</v>
-      </c>
-      <c r="K327" t="n">
-        <v>4</v>
-      </c>
-      <c r="L327" t="n">
-        <v>3</v>
-      </c>
-      <c r="M327" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P327" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q327" t="n">
-        <v>31</v>
-      </c>
-      <c r="R327" t="inlineStr">
-        <is>
-          <t>CHEMBL1908692</t>
-        </is>
-      </c>
-      <c r="S327" t="inlineStr">
-        <is>
-          <t>Binding constant for CSF1R kinase domain</t>
-        </is>
-      </c>
-      <c r="T327" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>CHEMBL1908397</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>1</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G328" t="n">
-        <v>332.41</v>
-      </c>
-      <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3</v>
-      </c>
-      <c r="J328" t="n">
-        <v>3</v>
-      </c>
-      <c r="K328" t="n">
-        <v>4</v>
-      </c>
-      <c r="L328" t="n">
-        <v>3</v>
-      </c>
-      <c r="M328" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P328" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q328" t="n">
-        <v>120</v>
-      </c>
-      <c r="R328" t="inlineStr">
-        <is>
-          <t>CHEMBL1908692</t>
-        </is>
-      </c>
-      <c r="S328" t="inlineStr">
-        <is>
-          <t>Binding constant for CSF1R kinase domain</t>
-        </is>
-      </c>
-      <c r="T328" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>CHEMBL4878007</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>1</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Nc1ncc(-c2cc3ccccc3o2)c(N2CCC3(CCNC3=O)CC2)c1Cl</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>Nc1ncc(-c2cc3ccccc3o2)c(N2CCC3(CCNC3=O)CC2)c1Cl</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G329" t="n">
-        <v>396.88</v>
-      </c>
-      <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>5</v>
-      </c>
-      <c r="J329" t="n">
-        <v>2</v>
-      </c>
-      <c r="K329" t="n">
-        <v>5</v>
-      </c>
-      <c r="L329" t="n">
-        <v>3</v>
-      </c>
-      <c r="M329" t="n">
-        <v>84.39</v>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O329" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P329" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q329" t="n">
-        <v>166</v>
-      </c>
-      <c r="R329" t="inlineStr">
-        <is>
-          <t>CHEMBL4812449</t>
-        </is>
-      </c>
-      <c r="S329" t="inlineStr">
-        <is>
-          <t>Inhibition of human FMS using KKKSPGEYVNIEFG as substrate incubated for 40 mins in presence of [gamma-33ATP] by scintillation counting based radiometry assay</t>
-        </is>
-      </c>
-      <c r="T329" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>CHEMBL608533</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>1</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G330" t="n">
-        <v>570.65</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>4</v>
-      </c>
-      <c r="J330" t="n">
-        <v>3</v>
-      </c>
-      <c r="K330" t="n">
-        <v>9</v>
-      </c>
-      <c r="L330" t="n">
-        <v>6</v>
-      </c>
-      <c r="M330" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O330" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P330" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q330" t="n">
-        <v>330</v>
-      </c>
-      <c r="R330" t="inlineStr">
-        <is>
-          <t>CHEMBL1244774</t>
-        </is>
-      </c>
-      <c r="S330" t="inlineStr">
-        <is>
-          <t>Binding affinity to CSF1R</t>
-        </is>
-      </c>
-      <c r="T330" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>CHEMBL3629013</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>0</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G331" t="n">
-        <v>392.51</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>6</v>
-      </c>
-      <c r="J331" t="n">
-        <v>5</v>
-      </c>
-      <c r="K331" t="n">
-        <v>5</v>
-      </c>
-      <c r="L331" t="n">
-        <v>2</v>
-      </c>
-      <c r="M331" t="n">
-        <v>79</v>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P331" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q331" t="n">
-        <v>57000</v>
-      </c>
-      <c r="R331" t="inlineStr">
-        <is>
-          <t>CHEMBL3631839</t>
-        </is>
-      </c>
-      <c r="S331" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) by FRET method</t>
-        </is>
-      </c>
-      <c r="T331" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>0</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G332" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>9</v>
-      </c>
-      <c r="J332" t="n">
-        <v>2</v>
-      </c>
-      <c r="K332" t="n">
-        <v>5</v>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P332" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q332" t="n">
-        <v>6</v>
-      </c>
-      <c r="R332" t="inlineStr">
-        <is>
-          <t>CHEMBL1019609</t>
-        </is>
-      </c>
-      <c r="S332" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 1 uM</t>
-        </is>
-      </c>
-      <c r="T332" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>CHEMBL2152768</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>0</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G333" t="n">
-        <v>504.61</v>
-      </c>
-      <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>7</v>
-      </c>
-      <c r="J333" t="n">
-        <v>5</v>
-      </c>
-      <c r="K333" t="n">
-        <v>6</v>
-      </c>
-      <c r="L333" t="n">
-        <v>4</v>
-      </c>
-      <c r="M333" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q333" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="R333" t="inlineStr">
-        <is>
-          <t>CHEMBL2156514</t>
-        </is>
-      </c>
-      <c r="S333" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 1 uM</t>
-        </is>
-      </c>
-      <c r="T333" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>CHEMBL4528675</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>0</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G334" t="n">
-        <v>535.55</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>7</v>
-      </c>
-      <c r="J334" t="n">
-        <v>7</v>
-      </c>
-      <c r="K334" t="n">
-        <v>5</v>
-      </c>
-      <c r="L334" t="n">
-        <v>4</v>
-      </c>
-      <c r="M334" t="n">
-        <v>107.06</v>
-      </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O334" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P334" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q334" t="n">
-        <v>-14.17</v>
-      </c>
-      <c r="R334" t="inlineStr">
-        <is>
-          <t>CHEMBL4366410</t>
-        </is>
-      </c>
-      <c r="S334" t="inlineStr">
-        <is>
-          <t>Inhibition of human FMS at 100 nM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay</t>
-        </is>
-      </c>
-      <c r="T334" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>CHEMBL4078898</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>0</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>CC(C)n1cnc2c(Nc3cc(N)cc(Cl)c3)nc(N[C@@H]3CCCC[C@@H]3N)nc21</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>CC(C)n1cnc2c(Nc3cc(N)cc(Cl)c3)nc(N[C@@H]3CCCC[C@@H]3N)nc21</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G335" t="n">
-        <v>414.95</v>
-      </c>
-      <c r="H335" t="n">
-        <v>4</v>
-      </c>
-      <c r="I335" t="n">
-        <v>7</v>
-      </c>
-      <c r="J335" t="n">
-        <v>5</v>
-      </c>
-      <c r="K335" t="n">
-        <v>4</v>
-      </c>
-      <c r="L335" t="n">
-        <v>3</v>
-      </c>
-      <c r="M335" t="n">
-        <v>119.7</v>
-      </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P335" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q335" t="n">
-        <v>9</v>
-      </c>
-      <c r="R335" t="inlineStr">
-        <is>
-          <t>CHEMBL4003783</t>
-        </is>
-      </c>
-      <c r="S335" t="inlineStr">
-        <is>
-          <t>Inhibition of human Fms using KKKSPGEYVNIEFG as substrate in presence of [gamma-33P]ATP at 1 uM after 40 mins by scintillation counter method</t>
-        </is>
-      </c>
-      <c r="T335" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>CHEMBL4278763</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>0</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G336" t="n">
-        <v>469.57</v>
-      </c>
-      <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>5</v>
-      </c>
-      <c r="J336" t="n">
-        <v>4</v>
-      </c>
-      <c r="K336" t="n">
-        <v>6</v>
-      </c>
-      <c r="L336" t="n">
-        <v>5</v>
-      </c>
-      <c r="M336" t="n">
-        <v>116.37</v>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P336" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q336" t="n">
-        <v>10</v>
-      </c>
-      <c r="R336" t="inlineStr">
-        <is>
-          <t>CHEMBL4263811</t>
-        </is>
-      </c>
-      <c r="S336" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T336" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>CHEMBL4553144</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>0</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G337" t="n">
-        <v>548.95</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>4</v>
-      </c>
-      <c r="J337" t="n">
-        <v>6</v>
-      </c>
-      <c r="K337" t="n">
-        <v>5</v>
-      </c>
-      <c r="L337" t="n">
-        <v>5</v>
-      </c>
-      <c r="M337" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O337" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P337" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q337" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="R337" t="inlineStr">
-        <is>
-          <t>CHEMBL4313422</t>
-        </is>
-      </c>
-      <c r="S337" t="inlineStr">
-        <is>
-          <t>Inhibition of human FMS at 10 uM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay relative to control</t>
-        </is>
-      </c>
-      <c r="T337" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>CHEMBL4757546</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>0</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G338" t="n">
-        <v>494.64</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>8</v>
-      </c>
-      <c r="J338" t="n">
-        <v>7</v>
-      </c>
-      <c r="K338" t="n">
-        <v>5</v>
-      </c>
-      <c r="L338" t="n">
-        <v>2</v>
-      </c>
-      <c r="M338" t="n">
-        <v>98.63</v>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O338" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P338" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q338" t="n">
-        <v>6</v>
-      </c>
-      <c r="R338" t="inlineStr">
-        <is>
-          <t>CHEMBL4666413</t>
-        </is>
-      </c>
-      <c r="S338" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) at 500 nM relative to control</t>
-        </is>
-      </c>
-      <c r="T338" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>CHEMBL583042</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>0</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G339" t="n">
-        <v>500.36</v>
-      </c>
-      <c r="H339" t="n">
-        <v>4</v>
-      </c>
-      <c r="I339" t="n">
-        <v>5</v>
-      </c>
-      <c r="J339" t="n">
-        <v>7</v>
-      </c>
-      <c r="K339" t="n">
-        <v>4</v>
-      </c>
-      <c r="L339" t="n">
-        <v>4</v>
-      </c>
-      <c r="M339" t="n">
-        <v>102.93</v>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P339" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q339" t="n">
-        <v>6</v>
-      </c>
-      <c r="R339" t="inlineStr">
-        <is>
-          <t>CHEMBL1041364</t>
-        </is>
-      </c>
-      <c r="S339" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS at 1 uM</t>
-        </is>
-      </c>
-      <c r="T339" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>CHEMBL607196</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>0</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G340" t="n">
-        <v>380.45</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>2</v>
-      </c>
-      <c r="J340" t="n">
-        <v>4</v>
-      </c>
-      <c r="K340" t="n">
-        <v>5</v>
-      </c>
-      <c r="L340" t="n">
-        <v>3</v>
-      </c>
-      <c r="M340" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q340" t="n">
-        <v>11</v>
-      </c>
-      <c r="R340" t="inlineStr">
-        <is>
-          <t>CHEMBL1069291</t>
-        </is>
-      </c>
-      <c r="S340" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 10 uM</t>
-        </is>
-      </c>
-      <c r="T340" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>CHEMBL4878199</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>0</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>N[C@H]1CCCN(C(=O)c2ccc(-c3ccc4ncc(-c5ccc6cnccc6c5)n4n3)cc2)C1</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>N[C@H]1CCCN(C(=O)c2ccc(-c3ccc4ncc(-c5ccc6cnccc6c5)n4n3)cc2)C1</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G341" t="n">
-        <v>448.53</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>5</v>
-      </c>
-      <c r="J341" t="n">
-        <v>3</v>
-      </c>
-      <c r="K341" t="n">
-        <v>6</v>
-      </c>
-      <c r="L341" t="n">
-        <v>5</v>
-      </c>
-      <c r="M341" t="n">
-        <v>89.41</v>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P341" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q341" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="R341" t="inlineStr">
-        <is>
-          <t>CHEMBL4822887</t>
-        </is>
-      </c>
-      <c r="S341" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T341" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>CHEMBL160937</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>0</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G342" t="n">
-        <v>314.73</v>
-      </c>
-      <c r="H342" t="n">
-        <v>3</v>
-      </c>
-      <c r="I342" t="n">
-        <v>4</v>
-      </c>
-      <c r="J342" t="n">
-        <v>3</v>
-      </c>
-      <c r="K342" t="n">
-        <v>3</v>
-      </c>
-      <c r="L342" t="n">
-        <v>2</v>
-      </c>
-      <c r="M342" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O342" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P342" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q342" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R342" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S342" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T342" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>CHEMBL1794050</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>0</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(-c3cccnc3)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(-c3cccnc3)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G343" t="n">
-        <v>472.14</v>
-      </c>
-      <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3</v>
-      </c>
-      <c r="J343" t="n">
-        <v>2</v>
-      </c>
-      <c r="K343" t="n">
-        <v>4</v>
-      </c>
-      <c r="L343" t="n">
-        <v>3</v>
-      </c>
-      <c r="M343" t="n">
-        <v>62.22</v>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P343" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q343" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="R343" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S343" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T343" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>CHEMBL1794066</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>0</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G344" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H344" t="n">
-        <v>3</v>
-      </c>
-      <c r="I344" t="n">
-        <v>9</v>
-      </c>
-      <c r="J344" t="n">
-        <v>4</v>
-      </c>
-      <c r="K344" t="n">
-        <v>4</v>
-      </c>
-      <c r="L344" t="n">
-        <v>3</v>
-      </c>
-      <c r="M344" t="n">
-        <v>137.14</v>
-      </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P344" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q344" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R344" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S344" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T344" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>CHEMBL1794071</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>0</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G345" t="n">
-        <v>373.46</v>
-      </c>
-      <c r="H345" t="n">
-        <v>3</v>
-      </c>
-      <c r="I345" t="n">
-        <v>4</v>
-      </c>
-      <c r="J345" t="n">
-        <v>3</v>
-      </c>
-      <c r="K345" t="n">
-        <v>5</v>
-      </c>
-      <c r="L345" t="n">
-        <v>3</v>
-      </c>
-      <c r="M345" t="n">
-        <v>86.19</v>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O345" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P345" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q345" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R345" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S345" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T345" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>0</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G346" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>6</v>
-      </c>
-      <c r="J346" t="n">
-        <v>6</v>
-      </c>
-      <c r="K346" t="n">
-        <v>5</v>
-      </c>
-      <c r="L346" t="n">
-        <v>5</v>
-      </c>
-      <c r="M346" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O346" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P346" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q346" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R346" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S346" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T346" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>CHEMBL1909405</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>0</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>CN(C)CCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>CN(C)CCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G347" t="n">
-        <v>458.46</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>5</v>
-      </c>
-      <c r="J347" t="n">
-        <v>7</v>
-      </c>
-      <c r="K347" t="n">
-        <v>4</v>
-      </c>
-      <c r="L347" t="n">
-        <v>4</v>
-      </c>
-      <c r="M347" t="n">
-        <v>58.35</v>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O347" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P347" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q347" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R347" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S347" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T347" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>CHEMBL196022</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>0</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2coc3ncnc(N)c23)cc1</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2coc3ncnc(N)c23)cc1</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G348" t="n">
-        <v>241.25</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>5</v>
-      </c>
-      <c r="J348" t="n">
-        <v>2</v>
-      </c>
-      <c r="K348" t="n">
-        <v>3</v>
-      </c>
-      <c r="L348" t="n">
-        <v>3</v>
-      </c>
-      <c r="M348" t="n">
-        <v>74.17</v>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O348" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P348" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q348" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R348" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S348" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T348" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>CHEMBL205158</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>0</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G349" t="n">
-        <v>427.51</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>6</v>
-      </c>
-      <c r="J349" t="n">
-        <v>7</v>
-      </c>
-      <c r="K349" t="n">
-        <v>5</v>
-      </c>
-      <c r="L349" t="n">
-        <v>4</v>
-      </c>
-      <c r="M349" t="n">
-        <v>76.16</v>
-      </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P349" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q349" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="R349" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S349" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T349" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>CHEMBL230597</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>0</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G350" t="n">
-        <v>381.46</v>
-      </c>
-      <c r="H350" t="n">
-        <v>3</v>
-      </c>
-      <c r="I350" t="n">
-        <v>4</v>
-      </c>
-      <c r="J350" t="n">
-        <v>5</v>
-      </c>
-      <c r="K350" t="n">
-        <v>3</v>
-      </c>
-      <c r="L350" t="n">
-        <v>3</v>
-      </c>
-      <c r="M350" t="n">
-        <v>115.28</v>
-      </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O350" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P350" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q350" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="R350" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S350" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T350" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>CHEMBL233001</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>0</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G351" t="n">
-        <v>332.43</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>2</v>
-      </c>
-      <c r="J351" t="n">
-        <v>2</v>
-      </c>
-      <c r="K351" t="n">
-        <v>4</v>
-      </c>
-      <c r="L351" t="n">
-        <v>3</v>
-      </c>
-      <c r="M351" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O351" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P351" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q351" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R351" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S351" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T351" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>CHEMBL272026</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>0</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G352" t="n">
-        <v>467.51</v>
-      </c>
-      <c r="H352" t="n">
-        <v>4</v>
-      </c>
-      <c r="I352" t="n">
-        <v>6</v>
-      </c>
-      <c r="J352" t="n">
-        <v>8</v>
-      </c>
-      <c r="K352" t="n">
-        <v>4</v>
-      </c>
-      <c r="L352" t="n">
-        <v>3</v>
-      </c>
-      <c r="M352" t="n">
-        <v>160.57</v>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P352" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q352" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R352" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S352" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T352" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>CHEMBL385426</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>0</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G353" t="n">
-        <v>294.4</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>2</v>
-      </c>
-      <c r="J353" t="n">
-        <v>5</v>
-      </c>
-      <c r="K353" t="n">
-        <v>2</v>
-      </c>
-      <c r="L353" t="n">
-        <v>2</v>
-      </c>
-      <c r="M353" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P353" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q353" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R353" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S353" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T353" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>CHEMBL402108</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>0</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>Cc1nnc(-c2ccc(C)c(-c3ccc(C(=O)NCc4ccc(Cl)cc4)cc3)c2)o1</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Cc1nnc(-c2ccc(C)c(-c3ccc(C(=O)NCc4ccc(Cl)cc4)cc3)c2)o1</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G354" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>4</v>
-      </c>
-      <c r="J354" t="n">
-        <v>5</v>
-      </c>
-      <c r="K354" t="n">
-        <v>4</v>
-      </c>
-      <c r="L354" t="n">
-        <v>4</v>
-      </c>
-      <c r="M354" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P354" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q354" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R354" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S354" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T354" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>CHEMBL419903</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>0</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G355" t="n">
-        <v>295.32</v>
-      </c>
-      <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>2</v>
-      </c>
-      <c r="J355" t="n">
-        <v>3</v>
-      </c>
-      <c r="K355" t="n">
-        <v>4</v>
-      </c>
-      <c r="L355" t="n">
-        <v>3</v>
-      </c>
-      <c r="M355" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P355" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q355" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R355" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S355" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T355" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>CHEMBL441702</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>0</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G356" t="n">
-        <v>396.45</v>
-      </c>
-      <c r="H356" t="n">
-        <v>3</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3</v>
-      </c>
-      <c r="J356" t="n">
-        <v>3</v>
-      </c>
-      <c r="K356" t="n">
-        <v>5</v>
-      </c>
-      <c r="L356" t="n">
-        <v>4</v>
-      </c>
-      <c r="M356" t="n">
-        <v>86.88</v>
-      </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P356" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q356" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="R356" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S356" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T356" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>CHEMBL458415</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>0</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(N3CCc4ccccc43)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(N3CCc4ccccc43)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G357" t="n">
-        <v>483.58</v>
-      </c>
-      <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>7</v>
-      </c>
-      <c r="J357" t="n">
-        <v>6</v>
-      </c>
-      <c r="K357" t="n">
-        <v>6</v>
-      </c>
-      <c r="L357" t="n">
-        <v>4</v>
-      </c>
-      <c r="M357" t="n">
-        <v>89.62</v>
-      </c>
-      <c r="N357" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O357" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P357" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q357" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R357" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S357" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T357" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>CHEMBL522709</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>0</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G358" t="n">
-        <v>461.47</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>4</v>
-      </c>
-      <c r="J358" t="n">
-        <v>6</v>
-      </c>
-      <c r="K358" t="n">
-        <v>4</v>
-      </c>
-      <c r="L358" t="n">
-        <v>4</v>
-      </c>
-      <c r="M358" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="N358" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O358" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P358" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q358" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R358" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S358" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T358" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
